--- a/학습자료/단답형/객관식_국어_복습_한자어3글자.xlsx
+++ b/학습자료/단답형/객관식_국어_복습_한자어3글자.xlsx
@@ -449,14 +449,14 @@
       <c r="A2" t="inlineStr">
         <is>
           <t>消防官
-1. 과학자
-2. 소방관
-3. 포물선</t>
+1. 소방관
+2. 서약서
+3. 구설수</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2, 소방관</t>
+          <t>1, 소방관</t>
         </is>
       </c>
     </row>
@@ -464,7 +464,7 @@
       <c r="A3" t="inlineStr">
         <is>
           <t>科學者
-1. 불가피
+1. 포물선
 2. 과학자
 3. 복불복</t>
         </is>
@@ -479,14 +479,14 @@
       <c r="A4" t="inlineStr">
         <is>
           <t>硏究員
-1. 세도가
-2. 연구원
-3. 체계적</t>
+1. 소방관
+2. 체계적
+3. 연구원</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2, 연구원</t>
+          <t>3, 연구원</t>
         </is>
       </c>
     </row>
@@ -494,7 +494,7 @@
       <c r="A5" t="inlineStr">
         <is>
           <t>體系的
-1. 세도가
+1. 불가피
 2. 포물선
 3. 체계적</t>
         </is>
@@ -510,13 +510,13 @@
         <is>
           <t>抛物線
 1. 세도가
-2. 포물선
-3. 소방관</t>
+2. 복불복
+3. 포물선</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2, 포물선</t>
+          <t>3, 포물선</t>
         </is>
       </c>
     </row>
@@ -525,8 +525,8 @@
         <is>
           <t>有名稅
 1. 유명세
-2. 도전자
-3. 포물선</t>
+2. 서약서
+3. 구설수</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -539,14 +539,14 @@
       <c r="A8" t="inlineStr">
         <is>
           <t>福不福
-1. 복불복
-2. 연구원
-3. 소방관</t>
+1. 유명세
+2. 복불복
+3. 불가피</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>1, 복불복</t>
+          <t>2, 복불복</t>
         </is>
       </c>
     </row>
@@ -555,8 +555,8 @@
         <is>
           <t>勢道家
 1. 세도가
-2. 불가피
-3. 소방관</t>
+2. 도전자
+3. 복불복</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
@@ -569,14 +569,14 @@
       <c r="A10" t="inlineStr">
         <is>
           <t>口舌數
-1. 불가피
-2. 복불복
-3. 구설수</t>
+1. 소방관
+2. 구설수
+3. 포물선</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>3, 구설수</t>
+          <t>2, 구설수</t>
         </is>
       </c>
     </row>
@@ -584,9 +584,9 @@
       <c r="A11" t="inlineStr">
         <is>
           <t>挑戰者
-1. 구설수
+1. 포물선
 2. 도전자
-3. 불가피</t>
+3. 유명세</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
@@ -599,8 +599,8 @@
       <c r="A12" t="inlineStr">
         <is>
           <t>不可避
-1. 세도가
-2. 체계적
+1. 서약서
+2. 연구원
 3. 불가피</t>
         </is>
       </c>
@@ -614,14 +614,14 @@
       <c r="A13" t="inlineStr">
         <is>
           <t>誓約書
-1. 서약서
+1. 연구원
 2. 과학자
-3. 체계적</t>
+3. 서약서</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>1, 서약서</t>
+          <t>3, 서약서</t>
         </is>
       </c>
     </row>

--- a/학습자료/단답형/객관식_국어_복습_한자어3글자.xlsx
+++ b/학습자료/단답형/객관식_국어_복습_한자어3글자.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B13"/>
+  <dimension ref="A1:B15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -449,14 +449,14 @@
       <c r="A2" t="inlineStr">
         <is>
           <t>消防官
-1. 소방관
-2. 서약서
-3. 구설수</t>
+1. 서약서
+2. 불가피
+3. 소방관</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>1, 소방관</t>
+          <t>3, 소방관</t>
         </is>
       </c>
     </row>
@@ -465,13 +465,13 @@
         <is>
           <t>科學者
 1. 포물선
-2. 과학자
-3. 복불복</t>
+2. 체계적
+3. 과학자</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2, 과학자</t>
+          <t>3, 과학자</t>
         </is>
       </c>
     </row>
@@ -479,8 +479,8 @@
       <c r="A4" t="inlineStr">
         <is>
           <t>硏究員
-1. 소방관
-2. 체계적
+1. 복불복
+2. 유명세
 3. 연구원</t>
         </is>
       </c>
@@ -494,29 +494,29 @@
       <c r="A5" t="inlineStr">
         <is>
           <t>體系的
+1. 복불복
+2. 체계적
+3. 유명세</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2, 체계적</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>抛物線
 1. 불가피
 2. 포물선
-3. 체계적</t>
-        </is>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>3, 체계적</t>
-        </is>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>抛物線
-1. 세도가
-2. 복불복
-3. 포물선</t>
+3. 서약서</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>3, 포물선</t>
+          <t>2, 포물선</t>
         </is>
       </c>
     </row>
@@ -525,8 +525,8 @@
         <is>
           <t>有名稅
 1. 유명세
-2. 서약서
-3. 구설수</t>
+2. 구설수
+3. 도전자</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -540,13 +540,13 @@
         <is>
           <t>福不福
 1. 유명세
-2. 복불복
-3. 불가피</t>
+2. 소방관
+3. 복불복</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>2, 복불복</t>
+          <t>3, 복불복</t>
         </is>
       </c>
     </row>
@@ -554,14 +554,14 @@
       <c r="A9" t="inlineStr">
         <is>
           <t>勢道家
-1. 세도가
-2. 도전자
-3. 복불복</t>
+1. 불가피
+2. 자의성
+3. 세도가</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>1, 세도가</t>
+          <t>3, 세도가</t>
         </is>
       </c>
     </row>
@@ -569,14 +569,14 @@
       <c r="A10" t="inlineStr">
         <is>
           <t>口舌數
-1. 소방관
-2. 구설수
-3. 포물선</t>
+1. 구설수
+2. 지자체
+3. 체계적</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>2, 구설수</t>
+          <t>1, 구설수</t>
         </is>
       </c>
     </row>
@@ -584,9 +584,9 @@
       <c r="A11" t="inlineStr">
         <is>
           <t>挑戰者
-1. 포물선
+1. 유명세
 2. 도전자
-3. 유명세</t>
+3. 자의성</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
@@ -599,14 +599,14 @@
       <c r="A12" t="inlineStr">
         <is>
           <t>不可避
-1. 서약서
-2. 연구원
-3. 불가피</t>
+1. 불가피
+2. 구설수
+3. 도전자</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>3, 불가피</t>
+          <t>1, 불가피</t>
         </is>
       </c>
     </row>
@@ -615,13 +615,43 @@
         <is>
           <t>誓約書
 1. 연구원
-2. 과학자
-3. 서약서</t>
+2. 서약서
+3. 불가피</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>3, 서약서</t>
+          <t>2, 서약서</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>恣意性
+1. 지자체
+2. 세도가
+3. 자의성</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>3, 자의성</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>地自體
+1. 복불복
+2. 지자체
+3. 소방관</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>2, 지자체</t>
         </is>
       </c>
     </row>

--- a/학습자료/단답형/객관식_국어_복습_한자어3글자.xlsx
+++ b/학습자료/단답형/객관식_국어_복습_한자어3글자.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B15"/>
+  <dimension ref="A1:C15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -444,9 +444,140 @@
           <t>대답</t>
         </is>
       </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>오답가산점</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
+        <is>
+          <t>地自體
+1. 복불복
+2. 지자체
+3. 소방관</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2, 지자체</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>硏究員
+1. 복불복
+2. 유명세
+3. 연구원</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>3, 연구원</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>口舌數
+1. 구설수
+2. 지자체
+3. 체계적</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>1, 구설수</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>恣意性
+1. 지자체
+2. 세도가
+3. 자의성</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>3, 자의성</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>體系的
+1. 복불복
+2. 체계적
+3. 유명세</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>2, 체계적</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>不可避
+1. 불가피
+2. 구설수
+3. 도전자</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>1, 불가피</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>福不福
+1. 유명세
+2. 소방관
+3. 복불복</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>3, 복불복</t>
+        </is>
+      </c>
+      <c r="C8" t="n">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
         <is>
           <t>消防官
 1. 서약서
@@ -454,14 +585,35 @@
 3. 소방관</t>
         </is>
       </c>
-      <c r="B2" t="inlineStr">
+      <c r="B9" t="inlineStr">
         <is>
           <t>3, 소방관</t>
         </is>
       </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
+      <c r="C9" t="n">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>勢道家
+1. 불가피
+2. 자의성
+3. 세도가</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>3, 세도가</t>
+        </is>
+      </c>
+      <c r="C10" t="n">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
         <is>
           <t>科學者
 1. 포물선
@@ -469,44 +621,17 @@
 3. 과학자</t>
         </is>
       </c>
-      <c r="B3" t="inlineStr">
+      <c r="B11" t="inlineStr">
         <is>
           <t>3, 과학자</t>
         </is>
       </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>硏究員
-1. 복불복
-2. 유명세
-3. 연구원</t>
-        </is>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>3, 연구원</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>體系的
-1. 복불복
-2. 체계적
-3. 유명세</t>
-        </is>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>2, 체계적</t>
-        </is>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
+      <c r="C11" t="n">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
         <is>
           <t>抛物線
 1. 불가피
@@ -514,14 +639,35 @@
 3. 서약서</t>
         </is>
       </c>
-      <c r="B6" t="inlineStr">
+      <c r="B12" t="inlineStr">
         <is>
           <t>2, 포물선</t>
         </is>
       </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
+      <c r="C12" t="n">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>挑戰者
+1. 유명세
+2. 도전자
+3. 자의성</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>2, 도전자</t>
+        </is>
+      </c>
+      <c r="C13" t="n">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
         <is>
           <t>有名稅
 1. 유명세
@@ -529,89 +675,17 @@
 3. 도전자</t>
         </is>
       </c>
-      <c r="B7" t="inlineStr">
+      <c r="B14" t="inlineStr">
         <is>
           <t>1, 유명세</t>
         </is>
       </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>福不福
-1. 유명세
-2. 소방관
-3. 복불복</t>
-        </is>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>3, 복불복</t>
-        </is>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>勢道家
-1. 불가피
-2. 자의성
-3. 세도가</t>
-        </is>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>3, 세도가</t>
-        </is>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>口舌數
-1. 구설수
-2. 지자체
-3. 체계적</t>
-        </is>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>1, 구설수</t>
-        </is>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>挑戰者
-1. 유명세
-2. 도전자
-3. 자의성</t>
-        </is>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>2, 도전자</t>
-        </is>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>不可避
-1. 불가피
-2. 구설수
-3. 도전자</t>
-        </is>
-      </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>1, 불가피</t>
-        </is>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
+      <c r="C14" t="n">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
         <is>
           <t>誓約書
 1. 연구원
@@ -619,40 +693,13 @@
 3. 불가피</t>
         </is>
       </c>
-      <c r="B13" t="inlineStr">
+      <c r="B15" t="inlineStr">
         <is>
           <t>2, 서약서</t>
         </is>
       </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="inlineStr">
-        <is>
-          <t>恣意性
-1. 지자체
-2. 세도가
-3. 자의성</t>
-        </is>
-      </c>
-      <c r="B14" t="inlineStr">
-        <is>
-          <t>3, 자의성</t>
-        </is>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" t="inlineStr">
-        <is>
-          <t>地自體
-1. 복불복
-2. 지자체
-3. 소방관</t>
-        </is>
-      </c>
-      <c r="B15" t="inlineStr">
-        <is>
-          <t>2, 지자체</t>
-        </is>
+      <c r="C15" t="n">
+        <v>-1</v>
       </c>
     </row>
   </sheetData>
